--- a/src/test/java/com/crmnext/testData/LoginData.xlsx
+++ b/src/test/java/com/crmnext/testData/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation\CRMNEXTAutomationFramework\src\test\java\com\crmnext\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2E175C-3EA8-47B0-9049-5482EBC5C2D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E652F529-EBA4-491B-AD16-40760924EB23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AA0F49AE-30EC-4595-B2DD-8DE7F023CA63}"/>
   </bookViews>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>password</t>
   </si>
   <si>
     <t>username</t>
-  </si>
-  <si>
-    <t>ritesh.mittal@crmnext.com</t>
-  </si>
-  <si>
-    <t>V_vteam11</t>
   </si>
 </sst>
 </file>
@@ -401,7 +395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35571C4-B41C-49AE-BF10-DF2A8AC96054}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -414,12 +410,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -438,9 +429,6 @@
       <c r="C8" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{06710936-CC9B-4087-BE0F-8F578850A88C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>